--- a/Candat 6 - 2024.xlsx
+++ b/Candat 6 - 2024.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20411"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D5D967-64A0-4B5E-A520-76165EB03A26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDD38C9-4CF1-4C52-9C85-F84EB306B8AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="800" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chatting &amp; Idle" sheetId="18" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3161" uniqueCount="2681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3181" uniqueCount="2694">
   <si>
     <t xml:space="preserve">الترحيب </t>
   </si>
@@ -11000,6 +11000,49 @@
   </si>
   <si>
     <t>Ending</t>
+  </si>
+  <si>
+    <t>تحت امر حضرتك يا فندم
+برجاء توضيح البيانات التاليه لتسجيل الطلب
+رقم ارضى فى نفس العقار ,الرقم القومى , الا سم رباعي , والعنوان بالتفصيل , وتاريخ الميلاد ورقم موبايل للمتابعه , و علامة مميزة فى عنوان حضرتك
+وبرجاء توضيح رقم المنزل و رقم الدور و رقم الشقة</t>
+  </si>
+  <si>
+    <t>المطلوب لتقديم الخط الأرضي</t>
+  </si>
+  <si>
+    <t>تم تقديم الطلب و ان شاء الله فى خلال 24 ساعة الفنى هيعمل معاينة و يتواصل مع حضرتك رقم الطلب xxxxx</t>
+  </si>
+  <si>
+    <t>تم التقديم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"بعتذر لحضرتك جداً يا فندم لا يوجد امكانية للتعاقد فى الوقت الحالى و حين توافر الامكانية هنبلغ حضرتك من خلال التواصل على رقم الموبيل المسجل فى الطلب , و مدة الطلب سنتين" </t>
+  </si>
+  <si>
+    <t>Survey Finished</t>
+  </si>
+  <si>
+    <t>Not Avail</t>
+  </si>
+  <si>
+    <t>للاسف حالياً لا توجد امكانية فنية هيتم ارسال الطلب تلقائى لقسم المشروعات و هيتم ظهور نتيجة الطلب خلال 24 ساعة ان شاء الله "</t>
+  </si>
+  <si>
+    <t>Avail</t>
+  </si>
+  <si>
+    <t>"تم التقديم على الطلب وحالياً متاح للتعاقد يا فندم حضرتك تقدر تتوجه للسنترال للتعاقد ان شاء الله
+حضرتك على علم بمواعيد و عنوان السنترال ولا تحب اوضحها لحضرتك؟ "</t>
+  </si>
+  <si>
+    <t>HDM offline</t>
+  </si>
+  <si>
+    <t>HDM offline after R.S</t>
+  </si>
+  <si>
+    <t>أزاي اقدر اساعدك</t>
   </si>
 </sst>
 </file>
@@ -13813,10 +13856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5491FAA0-1F36-4588-9344-4A2F9F1B6EE6}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.140625" defaultRowHeight="15"/>
@@ -13824,7 +13867,7 @@
     <col min="1" max="16384" width="31.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="18" customFormat="1" ht="21.75" customHeight="1">
+    <row r="1" spans="1:6" s="18" customFormat="1" ht="21.75" customHeight="1">
       <c r="A1" s="18" t="s">
         <v>2667</v>
       </c>
@@ -13840,8 +13883,11 @@
       <c r="E1" s="18" t="s">
         <v>2673</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" s="33" customFormat="1" ht="113.25" customHeight="1">
+      <c r="F1" s="18" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="33" customFormat="1" ht="113.25" customHeight="1">
       <c r="A2" s="33" t="s">
         <v>2666</v>
       </c>
@@ -13857,8 +13903,11 @@
       <c r="E2" s="33" t="s">
         <v>2674</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" s="18" customFormat="1" ht="21.75" customHeight="1">
+      <c r="F2" s="33" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="18" customFormat="1" ht="21.75" customHeight="1">
       <c r="A3" s="18" t="s">
         <v>466</v>
       </c>
@@ -13874,8 +13923,11 @@
       <c r="E3" s="18" t="s">
         <v>2678</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" s="33" customFormat="1" ht="113.25" customHeight="1">
+      <c r="F3" s="18" t="s">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="33" customFormat="1" ht="113.25" customHeight="1">
       <c r="A4" s="33" t="s">
         <v>474</v>
       </c>
@@ -13891,8 +13943,11 @@
       <c r="E4" s="33" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" s="18" customFormat="1" ht="21.75" customHeight="1">
+      <c r="F4" s="33" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="18" customFormat="1" ht="21.75" customHeight="1">
       <c r="A5" s="18" t="s">
         <v>59</v>
       </c>
@@ -13908,8 +13963,11 @@
       <c r="E5" s="18" t="s">
         <v>2680</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" s="5" customFormat="1" ht="113.25" customHeight="1" thickBot="1">
+      <c r="F5" s="18" t="s">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="5" customFormat="1" ht="113.25" customHeight="1" thickBot="1">
       <c r="A6" s="5" t="s">
         <v>204</v>
       </c>
@@ -13925,9 +13983,12 @@
       <c r="E6" s="5" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" s="27" customFormat="1" ht="21.75" customHeight="1"/>
-    <row r="8" spans="1:5" s="9" customFormat="1" ht="109.5" customHeight="1">
+      <c r="F6" s="33" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="27" customFormat="1" ht="21.75" customHeight="1"/>
+    <row r="8" spans="1:6" s="9" customFormat="1" ht="109.5" customHeight="1">
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
     </row>
@@ -14237,8 +14298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C2294"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C108" sqref="C108"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -31460,8 +31521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.42578125" defaultRowHeight="24" customHeight="1"/>
@@ -31709,7 +31770,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="17" customFormat="1" ht="24" customHeight="1">
+    <row r="13" spans="1:6" s="18" customFormat="1" ht="24" customHeight="1">
       <c r="A13" s="18" t="s">
         <v>84</v>
       </c>
@@ -31722,7 +31783,12 @@
       <c r="D13" s="18" t="s">
         <v>1945</v>
       </c>
-      <c r="F13" s="23"/>
+      <c r="E13" s="18" t="s">
+        <v>2691</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>2692</v>
+      </c>
     </row>
     <row r="14" spans="1:6" s="6" customFormat="1" ht="108" customHeight="1">
       <c r="A14" s="6" t="s">
@@ -31736,6 +31802,12 @@
       </c>
       <c r="D14" s="6" t="s">
         <v>2655</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="17" customFormat="1" ht="24" customHeight="1">
@@ -31759,10 +31831,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="38.25" customHeight="1"/>
@@ -31875,6 +31947,40 @@
       </c>
       <c r="E6" s="33" t="s">
         <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="30" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A7" s="25" t="s">
+        <v>2682</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>2684</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>2689</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>2687</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="33" customFormat="1" ht="109.5" customHeight="1">
+      <c r="A8" s="33" t="s">
+        <v>2681</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>2683</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>2690</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>2688</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>2685</v>
       </c>
     </row>
   </sheetData>
@@ -32571,7 +32677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>

--- a/Candat 6 - 2024.xlsx
+++ b/Candat 6 - 2024.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20411"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDD38C9-4CF1-4C52-9C85-F84EB306B8AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EA6A93-1490-4569-ACE2-1AAB1EF0FBF7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13859,7 +13859,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.140625" defaultRowHeight="15"/>

--- a/Candat 6 - 2024.xlsx
+++ b/Candat 6 - 2024.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20411"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C595E3CF-89B6-4E8F-A70E-D9AF8661361F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEFE0DC-B411-4471-8ACB-DE127BFE4171}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31268,8 +31268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.5703125" defaultRowHeight="15"/>

--- a/Candat 6 - 2024.xlsx
+++ b/Candat 6 - 2024.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20411"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEFE0DC-B411-4471-8ACB-DE127BFE4171}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14EE390-899F-4CB5-857A-A15E9B83CF46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="800" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chatting &amp; Idle" sheetId="18" r:id="rId1"/>
@@ -19,46 +19,46 @@
     <sheet name="CMD Comm" sheetId="3" r:id="rId9"/>
     <sheet name="Sheet2" sheetId="7" state="hidden" r:id="rId10"/>
     <sheet name="NPS" sheetId="14" r:id="rId11"/>
-    <sheet name="Canneds Dina Abdelaziz" sheetId="16" r:id="rId12"/>
+    <sheet name="Canneds Dina " sheetId="16" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_Hlk101554301" localSheetId="11">'Canneds Dina Abdelaziz'!$A$688</definedName>
-    <definedName name="_Hlk102334028" localSheetId="11">'Canneds Dina Abdelaziz'!$A$446</definedName>
-    <definedName name="_Hlk104337378" localSheetId="11">'Canneds Dina Abdelaziz'!$A$337</definedName>
-    <definedName name="_Hlk104656972" localSheetId="11">'Canneds Dina Abdelaziz'!$A$1586</definedName>
-    <definedName name="_Hlk113505119" localSheetId="11">'Canneds Dina Abdelaziz'!$A$606</definedName>
-    <definedName name="_Hlk120538234" localSheetId="11">'Canneds Dina Abdelaziz'!$A$1059</definedName>
-    <definedName name="_Hlk138799913" localSheetId="11">'Canneds Dina Abdelaziz'!$A$1500</definedName>
-    <definedName name="_Hlk159168750" localSheetId="11">'Canneds Dina Abdelaziz'!$A$1040</definedName>
-    <definedName name="_Hlk159169954" localSheetId="11">'Canneds Dina Abdelaziz'!$A$1546</definedName>
-    <definedName name="_Hlk68899958" localSheetId="11">'Canneds Dina Abdelaziz'!$A$676</definedName>
-    <definedName name="OLE_LINK10" localSheetId="11">'Canneds Dina Abdelaziz'!$A$725</definedName>
-    <definedName name="OLE_LINK112" localSheetId="11">'Canneds Dina Abdelaziz'!$C$1732</definedName>
-    <definedName name="OLE_LINK12" localSheetId="11">'Canneds Dina Abdelaziz'!$C$124</definedName>
-    <definedName name="OLE_LINK14" localSheetId="11">'Canneds Dina Abdelaziz'!$B$1983</definedName>
-    <definedName name="OLE_LINK17" localSheetId="11">'Canneds Dina Abdelaziz'!$C$116</definedName>
-    <definedName name="OLE_LINK21" localSheetId="11">'Canneds Dina Abdelaziz'!$A$1696</definedName>
-    <definedName name="OLE_LINK286" localSheetId="11">'Canneds Dina Abdelaziz'!$C$412</definedName>
-    <definedName name="OLE_LINK298" localSheetId="11">'Canneds Dina Abdelaziz'!$C$136</definedName>
-    <definedName name="OLE_LINK3" localSheetId="11">'Canneds Dina Abdelaziz'!$C$1476</definedName>
-    <definedName name="OLE_LINK328" localSheetId="11">'Canneds Dina Abdelaziz'!$C$1872</definedName>
-    <definedName name="OLE_LINK4" localSheetId="11">'Canneds Dina Abdelaziz'!$C$184</definedName>
-    <definedName name="OLE_LINK447" localSheetId="11">'Canneds Dina Abdelaziz'!$C$1038</definedName>
-    <definedName name="OLE_LINK464" localSheetId="11">'Canneds Dina Abdelaziz'!$C$222</definedName>
-    <definedName name="OLE_LINK5" localSheetId="11">'Canneds Dina Abdelaziz'!$C$221</definedName>
-    <definedName name="OLE_LINK52" localSheetId="11">'Canneds Dina Abdelaziz'!$C$403</definedName>
-    <definedName name="OLE_LINK584" localSheetId="11">'Canneds Dina Abdelaziz'!$A$595</definedName>
-    <definedName name="OLE_LINK59" localSheetId="11">'Canneds Dina Abdelaziz'!$C$238</definedName>
-    <definedName name="OLE_LINK602" localSheetId="11">'Canneds Dina Abdelaziz'!$C$1880</definedName>
-    <definedName name="OLE_LINK7" localSheetId="11">'Canneds Dina Abdelaziz'!$C$203</definedName>
-    <definedName name="OLE_LINK796" localSheetId="11">'Canneds Dina Abdelaziz'!$C$591</definedName>
-    <definedName name="OLE_LINK815" localSheetId="11">'Canneds Dina Abdelaziz'!$C$110</definedName>
-    <definedName name="OLE_LINK823" localSheetId="11">'Canneds Dina Abdelaziz'!$C$767</definedName>
-    <definedName name="OLE_LINK839" localSheetId="11">'Canneds Dina Abdelaziz'!$A$539</definedName>
-    <definedName name="OLE_LINK840" localSheetId="11">'Canneds Dina Abdelaziz'!$C$1032</definedName>
-    <definedName name="OLE_LINK844" localSheetId="11">'Canneds Dina Abdelaziz'!$C$119</definedName>
-    <definedName name="OLE_LINK853" localSheetId="11">'Canneds Dina Abdelaziz'!$C$771</definedName>
-    <definedName name="OLE_LINK856" localSheetId="11">'Canneds Dina Abdelaziz'!$C$778</definedName>
+    <definedName name="_Hlk101554301" localSheetId="11">'Canneds Dina '!$A$688</definedName>
+    <definedName name="_Hlk102334028" localSheetId="11">'Canneds Dina '!$A$446</definedName>
+    <definedName name="_Hlk104337378" localSheetId="11">'Canneds Dina '!$A$337</definedName>
+    <definedName name="_Hlk104656972" localSheetId="11">'Canneds Dina '!$A$1586</definedName>
+    <definedName name="_Hlk113505119" localSheetId="11">'Canneds Dina '!$A$606</definedName>
+    <definedName name="_Hlk120538234" localSheetId="11">'Canneds Dina '!$A$1059</definedName>
+    <definedName name="_Hlk138799913" localSheetId="11">'Canneds Dina '!$A$1500</definedName>
+    <definedName name="_Hlk159168750" localSheetId="11">'Canneds Dina '!$A$1040</definedName>
+    <definedName name="_Hlk159169954" localSheetId="11">'Canneds Dina '!$A$1546</definedName>
+    <definedName name="_Hlk68899958" localSheetId="11">'Canneds Dina '!$A$676</definedName>
+    <definedName name="OLE_LINK10" localSheetId="11">'Canneds Dina '!$A$725</definedName>
+    <definedName name="OLE_LINK112" localSheetId="11">'Canneds Dina '!$C$1732</definedName>
+    <definedName name="OLE_LINK12" localSheetId="11">'Canneds Dina '!$C$124</definedName>
+    <definedName name="OLE_LINK14" localSheetId="11">'Canneds Dina '!$B$1983</definedName>
+    <definedName name="OLE_LINK17" localSheetId="11">'Canneds Dina '!$C$116</definedName>
+    <definedName name="OLE_LINK21" localSheetId="11">'Canneds Dina '!$A$1696</definedName>
+    <definedName name="OLE_LINK286" localSheetId="11">'Canneds Dina '!$C$412</definedName>
+    <definedName name="OLE_LINK298" localSheetId="11">'Canneds Dina '!$C$136</definedName>
+    <definedName name="OLE_LINK3" localSheetId="11">'Canneds Dina '!$C$1476</definedName>
+    <definedName name="OLE_LINK328" localSheetId="11">'Canneds Dina '!$C$1872</definedName>
+    <definedName name="OLE_LINK4" localSheetId="11">'Canneds Dina '!$C$184</definedName>
+    <definedName name="OLE_LINK447" localSheetId="11">'Canneds Dina '!$C$1038</definedName>
+    <definedName name="OLE_LINK464" localSheetId="11">'Canneds Dina '!$C$222</definedName>
+    <definedName name="OLE_LINK5" localSheetId="11">'Canneds Dina '!$C$221</definedName>
+    <definedName name="OLE_LINK52" localSheetId="11">'Canneds Dina '!$C$403</definedName>
+    <definedName name="OLE_LINK584" localSheetId="11">'Canneds Dina '!$A$595</definedName>
+    <definedName name="OLE_LINK59" localSheetId="11">'Canneds Dina '!$C$238</definedName>
+    <definedName name="OLE_LINK602" localSheetId="11">'Canneds Dina '!$C$1880</definedName>
+    <definedName name="OLE_LINK7" localSheetId="11">'Canneds Dina '!$C$203</definedName>
+    <definedName name="OLE_LINK796" localSheetId="11">'Canneds Dina '!$C$591</definedName>
+    <definedName name="OLE_LINK815" localSheetId="11">'Canneds Dina '!$C$110</definedName>
+    <definedName name="OLE_LINK823" localSheetId="11">'Canneds Dina '!$C$767</definedName>
+    <definedName name="OLE_LINK839" localSheetId="11">'Canneds Dina '!$A$539</definedName>
+    <definedName name="OLE_LINK840" localSheetId="11">'Canneds Dina '!$C$1032</definedName>
+    <definedName name="OLE_LINK844" localSheetId="11">'Canneds Dina '!$C$119</definedName>
+    <definedName name="OLE_LINK853" localSheetId="11">'Canneds Dina '!$C$771</definedName>
+    <definedName name="OLE_LINK856" localSheetId="11">'Canneds Dina '!$C$778</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -14475,8 +14475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C2294"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -31268,7 +31268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -31727,7 +31727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>

--- a/Candat 6 - 2024.xlsx
+++ b/Candat 6 - 2024.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20411"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12D160B-D8FD-48DF-9EF7-0AD9C230918C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209A9671-4EC4-42CA-9788-C70DAD6604C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" tabRatio="800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10907,16 +10907,6 @@
 </t>
   </si>
   <si>
-    <t>بعتذر لحضرتك ع الانقطاع دا يا فندم و يُرجى العلم بأنه جاري العمل على إصلاح العطل الفني الذي يؤثر علي خدمة الإنترنت الأرضي في منطقتك في خلال 3 ساعات  ان شاء الله . نشكركم علي ثقتكم وحسن تعاونكم.
-ودا كود العطل الحالي ع خط حضرتك     XXX
-و انا برضو سجلت لحضرتك شكوي من خلالي بالانقطاع  اللي عند حضرتك</t>
-  </si>
-  <si>
-    <t>بعتذر لحضرتك ع الانقطاع دا يا فندم و يُرجى العلم بأنه جاري العمل على إصلاح العطل الفني الذي يؤثر علي خدمة الإنترنت الأرضي في منطقتك في خلال 4 ساعات  ان شاء الله . نشكركم علي ثقتكم وحسن تعاونكم.
-ودا كود العطل الحالي ع خط حضرتك     XXX
-و انا برضو سجلت لحضرتك شكوي من خلالي بالانقطاع  اللي عند حضرتك</t>
-  </si>
-  <si>
     <t>Outage 3h (Data Down)</t>
   </si>
   <si>
@@ -11164,10 +11154,20 @@
     <t xml:space="preserve">Suspend Package </t>
   </si>
   <si>
-    <t>نظرا لخطة تخفيف الاحمال المعلنة من مجلس الوزراء فإن المنطقة الخاصة بكم قد تكون من ضمن المناطق المتأثرة بانقطاع التيار الكهربائي مع العلم أن الكابينة قد يكون لها مصدر اخر غير مصدر الكهرباء الخاص بوحدتكم السكنية مما قد يؤدي لفصل خدمه الانترنت والخط الأرضي لحين الانتهاء من المدة المقررة وعودة التيار الكهربائي خلال 3 ساعات بأذن الله ورقم العطل xxxx</t>
-  </si>
-  <si>
-    <t>EC Outage</t>
+    <t>نظرا لخطة تخفيف الاحمال المعلنة من مجلس الوزراء فإن المنطقة الخاصة بكم قد تكون من ضمن المناطق المتأثرة بانقطاع التيار الكهربائي وممكن الكابينة يكون ليها مصدر كهرباء تاني وفي الحالة دي الانترنت هيفصل مع انقطاع التيار عن الكابينة ورقم العطل  xxxx
+وفي حالة وجود عطل اخر بخلاف الكهربا هنشتغل على حله في اسرع وقت ممكن .
+و في حالة استمرار انقطاع الخدمة لأكثر من 3 ساعات حضرتك تقدر تتابع معانا لو متاح خط موبايل وي 015 مع حضرتك نقدر نضيف لحضرتك باقة انترنت --- جيجابايت تقدر حضرتك تستخدمها حتي رجوع الخدمة</t>
+  </si>
+  <si>
+    <t>نظرا لخطة تخفيف الاحمال المعلنة من مجلس الوزراء فإن المنطقة الخاصة بكم قد تكون من ضمن المناطق المتأثرة بانقطاع التيار الكهربائي وممكن الكابينة يكون ليها مصدر كهرباء تاني وفي الحالة دي الانترنت هيفصل مع انقطاع التيار عن الكابينة ورقم العطل  xxxx
+وفي حالة وجود عطل اخر بخلاف الكهربا هنشتغل على حله في أقرب وقت ممكن،
+و في حالة استمرار انقطاع الخدمة لأكثر من 4 ساعات حضرتك تقدر تتابع معانا لو متاح خط موبايل وي 015 مع حضرتك نقدر نضيف لحضرتك باقة انترنت --- جيجابايت تقدر حضرتك تستخدمها حتي رجوع الخدمة</t>
+  </si>
+  <si>
+    <t>major fult HK</t>
+  </si>
+  <si>
+    <t>انا واضح من خلالى ان حاليا فعلا فى مشكله عامه فى الكابلات الارضيه الخاصه بالخدمه فى السنترال وان شاء الله المشكله هتتحل فى خلال 5 ايام وممكن حضرتك تتابعنا بالنسبه لرقم الشكوى  xxx</t>
   </si>
 </sst>
 </file>
@@ -14051,19 +14051,19 @@
   <sheetData>
     <row r="1" spans="1:6" s="18" customFormat="1" ht="21.75" customHeight="1">
       <c r="A1" s="18" t="s">
+        <v>2662</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>2664</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>2666</v>
-      </c>
       <c r="C1" s="18" t="s">
+        <v>2665</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>2667</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>2669</v>
-      </c>
       <c r="E1" s="18" t="s">
-        <v>2670</v>
+        <v>2668</v>
       </c>
       <c r="F1" s="18" t="s">
         <v>416</v>
@@ -14071,19 +14071,19 @@
     </row>
     <row r="2" spans="1:6" s="33" customFormat="1" ht="113.25" customHeight="1">
       <c r="A2" s="33" t="s">
+        <v>2661</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>2663</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>2665</v>
-      </c>
       <c r="C2" s="33" t="s">
-        <v>2668</v>
+        <v>2666</v>
       </c>
       <c r="D2" s="33" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>2671</v>
+        <v>2669</v>
       </c>
       <c r="F2" s="33" t="s">
         <v>417</v>
@@ -14097,16 +14097,16 @@
         <v>463</v>
       </c>
       <c r="C3" s="18" t="s">
+        <v>2671</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>2673</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>2675</v>
-      </c>
       <c r="E3" s="18" t="s">
-        <v>2675</v>
+        <v>2673</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>2690</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="33" customFormat="1" ht="113.25" customHeight="1">
@@ -14114,13 +14114,13 @@
         <v>471</v>
       </c>
       <c r="B4" s="33" t="s">
+        <v>2670</v>
+      </c>
+      <c r="C4" s="33" t="s">
         <v>2672</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="D4" s="33" t="s">
         <v>2674</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>2676</v>
       </c>
       <c r="E4" s="33" t="s">
         <v>556</v>
@@ -14143,10 +14143,10 @@
         <v>63</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>2677</v>
+        <v>2675</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>2690</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" ht="113.25" customHeight="1" thickBot="1">
@@ -14492,8 +14492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C2294"/>
   <sheetViews>
-    <sheetView topLeftCell="A1087" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1108" sqref="C1108"/>
+    <sheetView topLeftCell="A1034" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1035" sqref="C1035:C1037"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -31285,8 +31285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.5703125" defaultRowHeight="15"/>
@@ -31365,7 +31365,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>2712</v>
+        <v>2710</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>195</v>
@@ -31474,7 +31474,7 @@
         <v>38</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>2662</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="5" customFormat="1" ht="130.5" customHeight="1">
@@ -31494,7 +31494,7 @@
         <v>39</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>2661</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="17" customFormat="1" ht="29.25" customHeight="1">
@@ -31514,7 +31514,7 @@
         <v>50</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>2706</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="5" customFormat="1" ht="119.25" customHeight="1">
@@ -31534,7 +31534,7 @@
         <v>51</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>2707</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="17" customFormat="1" ht="24" customHeight="1">
@@ -31554,7 +31554,7 @@
         <v>159</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>2708</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="5" customFormat="1" ht="99.75" customHeight="1">
@@ -31574,7 +31574,7 @@
         <v>194</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>2709</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="17" customFormat="1" ht="24.75" customHeight="1">
@@ -31594,7 +31594,7 @@
         <v>35</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>2710</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="5" customFormat="1" ht="99.75" customHeight="1">
@@ -31614,7 +31614,7 @@
         <v>34</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>2711</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="17" customFormat="1" ht="27.75" customHeight="1">
@@ -31634,7 +31634,7 @@
         <v>134</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>2713</v>
+        <v>2711</v>
       </c>
       <c r="G17" s="18"/>
     </row>
@@ -31655,7 +31655,7 @@
         <v>135</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>2714</v>
+        <v>2712</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="17" customFormat="1" ht="30.75" customHeight="1">
@@ -31675,7 +31675,7 @@
         <v>186</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>2718</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="5" customFormat="1" ht="109.5" customHeight="1">
@@ -31695,7 +31695,7 @@
         <v>187</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>2717</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="17" customFormat="1" ht="27" customHeight="1">
@@ -31750,7 +31750,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.42578125" defaultRowHeight="24" customHeight="1"/>
@@ -31789,7 +31789,7 @@
         <v>74</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>2715</v>
+        <v>2713</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>224</v>
@@ -31920,22 +31920,22 @@
     </row>
     <row r="9" spans="1:6" s="17" customFormat="1" ht="33.75" customHeight="1">
       <c r="A9" s="18" t="s">
+        <v>2656</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>2655</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>2657</v>
+      </c>
+      <c r="D9" s="18" t="s">
         <v>2658</v>
       </c>
-      <c r="B9" s="25" t="s">
-        <v>2657</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>2659</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>2660</v>
-      </c>
       <c r="E9" s="18" t="s">
-        <v>2720</v>
+        <v>114</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>114</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="5" customFormat="1" ht="99" customHeight="1">
@@ -31943,19 +31943,19 @@
         <v>116</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>2655</v>
+        <v>2717</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>2656</v>
+        <v>2718</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>2719</v>
+        <v>115</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>115</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="17" customFormat="1" ht="24" customHeight="1">
@@ -32012,10 +32012,10 @@
         <v>1942</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>2688</v>
+        <v>2686</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>2689</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="6" customFormat="1" ht="108" customHeight="1">
@@ -32078,7 +32078,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="47.25" customHeight="1">
       <c r="A1" s="165" t="s">
-        <v>2692</v>
+        <v>2690</v>
       </c>
       <c r="B1" s="166"/>
       <c r="C1" s="166"/>
@@ -32088,13 +32088,13 @@
     </row>
     <row r="2" spans="1:7" s="164" customFormat="1" ht="33.75" customHeight="1">
       <c r="A2" s="18" t="s">
+        <v>2692</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>2694</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="C2" s="18" t="s">
         <v>2696</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>2698</v>
       </c>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
@@ -32102,19 +32102,19 @@
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" ht="135" customHeight="1">
       <c r="A3" s="33" t="s">
+        <v>2693</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>2695</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="C3" s="33" t="s">
         <v>2697</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>2699</v>
       </c>
       <c r="G3" s="164"/>
     </row>
     <row r="4" spans="1:7" ht="35.25" customHeight="1">
       <c r="A4" s="165" t="s">
-        <v>2693</v>
+        <v>2691</v>
       </c>
       <c r="B4" s="166"/>
       <c r="C4" s="166"/>
@@ -32124,13 +32124,13 @@
     </row>
     <row r="5" spans="1:7" s="164" customFormat="1" ht="33.75" customHeight="1">
       <c r="A5" s="18" t="s">
-        <v>2700</v>
+        <v>2698</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>2703</v>
+        <v>2701</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>2698</v>
+        <v>2696</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>691</v>
@@ -32140,16 +32140,16 @@
     </row>
     <row r="6" spans="1:7" s="5" customFormat="1" ht="99" customHeight="1">
       <c r="A6" s="33" t="s">
-        <v>2701</v>
+        <v>2699</v>
       </c>
       <c r="B6" s="33" t="s">
+        <v>2700</v>
+      </c>
+      <c r="C6" s="33" t="s">
         <v>2702</v>
       </c>
-      <c r="C6" s="33" t="s">
-        <v>2704</v>
-      </c>
       <c r="D6" s="33" t="s">
-        <v>2705</v>
+        <v>2703</v>
       </c>
       <c r="G6" s="164"/>
     </row>
@@ -32198,8 +32198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="38.25" customHeight="1"/>
@@ -32274,7 +32274,7 @@
         <v>215</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>2691</v>
+        <v>2689</v>
       </c>
       <c r="E4" s="33" t="s">
         <v>220</v>
@@ -32316,36 +32316,36 @@
     </row>
     <row r="7" spans="1:5" s="30" customFormat="1" ht="26.25" customHeight="1">
       <c r="A7" s="25" t="s">
+        <v>2677</v>
+      </c>
+      <c r="B7" s="25" t="s">
         <v>2679</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="C7" s="30" t="s">
+        <v>2684</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>2682</v>
+      </c>
+      <c r="E7" s="30" t="s">
         <v>2681</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>2686</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>2684</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>2683</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="33" customFormat="1" ht="109.5" customHeight="1">
       <c r="A8" s="33" t="s">
+        <v>2676</v>
+      </c>
+      <c r="B8" s="33" t="s">
         <v>2678</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="C8" s="33" t="s">
+        <v>2685</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>2683</v>
+      </c>
+      <c r="E8" s="33" t="s">
         <v>2680</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>2687</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>2685</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>2682</v>
       </c>
     </row>
   </sheetData>
@@ -32470,7 +32470,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>2716</v>
+        <v>2714</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>170</v>
